--- a/Pourcentage_debit_national.xlsx
+++ b/Pourcentage_debit_national.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\33749\PycharmProjects\ProjetPython\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1BFC436-6FBA-4082-883E-A0159822BB0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E0E104-84F2-4103-BEF4-FD0C197E58E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11895" yWindow="0" windowWidth="12210" windowHeight="12885" xr2:uid="{2D034C26-8B7C-4F1A-ADF3-872CE14F054A}"/>
+    <workbookView xWindow="11250" yWindow="345" windowWidth="12750" windowHeight="9270" xr2:uid="{2D034C26-8B7C-4F1A-ADF3-872CE14F054A}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>Nombre de locaux</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>0,5 Mbit/s</t>
   </si>
@@ -53,13 +50,10 @@
     <t>30 Mbit/s</t>
   </si>
   <si>
-    <t>100 Mbit/s</t>
+    <t>Vitesse</t>
   </si>
   <si>
-    <t>1 Gbit/s</t>
-  </si>
-  <si>
-    <t>43 614 576</t>
+    <t>Pourcentage</t>
   </si>
 </sst>
 </file>
@@ -518,37 +512,33 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" s="4">
         <f t="shared" ref="B2:G2" ca="1" si="0">I2/$B2</f>
@@ -566,14 +556,8 @@
         <f t="shared" ca="1" si="0"/>
         <v>0.16349609818515717</v>
       </c>
-      <c r="F2" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G2" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:G2">
